--- a/zsd训练记录.xlsx
+++ b/zsd训练记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Documents\local_respository\ZJZSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAAA5B4-E731-4335-B19A-B8FEECDEA8E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34454BA6-96A0-4D60-B494-6D02D37C48F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,9 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改图片大小 min300 max481</t>
-  </si>
-  <si>
     <t>26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -208,6 +205,54 @@
   </si>
   <si>
     <t>unseen发布 更换词向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> loss: 3.8539 - regression_loss: 3.3688 - classification__loss: 0.4851</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改图片大小 min300 max480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.4801 - regression_loss: 1.2474 - classification__loss: 0.2326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> python -u keras_retinanet/bin/train_vocab_w2v.py --weights resnet50_part_csv_glo_40.h5 --multi-gpu 2 --multi-gpu-force --batch-size 8 --epochs 50 --steps 18000 --no-evaluation csv train_annotations_all.csv categories.csv --val-annotations test_annotations_all.csv&gt;201908172205.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201908172205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.初始loss依然很大？？ 已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下全量训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 2.4647 - regression_loss: 2.1470 - classification__loss: 0.3178</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,12 +309,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -278,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,10 +342,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -608,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F82953-3944-4ED0-9A8B-77E1C1FBCB0B}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -770,31 +830,31 @@
         <v>34</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -810,17 +870,65 @@
         <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/zsd训练记录.xlsx
+++ b/zsd训练记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xu225\Documents\local_respository\ZJZSD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34454BA6-96A0-4D60-B494-6D02D37C48F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6621959D-5006-44B1-9B46-B5B117D8C1CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="15262" windowHeight="9532" xr2:uid="{E8BA7BC3-06D8-412B-A92F-873CFC4A0795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> python -u keras_retinanet/bin/train_vocab_w2v.py --weights resnet50_part_csv_glo_40.h5 --multi-gpu 2 --multi-gpu-force --batch-size 8 --epochs 50 --steps 18000 --no-evaluation csv train_annotations_all.csv categories.csv --val-annotations test_annotations_all.csv&gt;201908172205.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>201908172205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,11 +244,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以下全量训练</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loss: 2.4647 - regression_loss: 2.1470 - classification__loss: 0.3178</t>
+    <t>python -u keras_retinanet/bin/train_vocab_w2v.py --weights resnet50_csv_16.h5--multi-gpu 2 --multi-gpu-force --batch-size 8 --epochs 50 --steps 18000 --no-evaluation csv train_annotations_all.csv categories.csv --val-annotations test_annotations_all.csv&gt;201908172205.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: 1.9033 - regression_new_loss: 1.6456 - classification_new_loss: 0.2577</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（之前权重初始化失败！！！！！！！！！！！！！！！！！！！）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>part 训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> loss: 0.5171 - regression_new_loss: 0.4460 - classification_new_loss: 0.0710
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1e-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giou loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python -u keras_retinanet/bin/train_vocab_w2v.py --weights bestsubmit/resnet50_csv_30.h5 --batch-size 8 --epochs 50 --steps 4000 --no-evaluation csv train_annotations.csv categories.csv --val-annotations test_annotations.csv&gt;201908211046.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giou loss w2v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python -u keras_retinanet/bin/train_vocab_w2v.py --weights snapshots/resnet50_csv_01.h5  --gpu 0 --batch-size 8 --epochs 30 --steps 10000 --no-evaluation --random-transform csv train_annotations_all.csv categories.csv --val-annotations test_annotations.csv&gt;201908221046.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -342,16 +379,22 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F82953-3944-4ED0-9A8B-77E1C1FBCB0B}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -843,18 +886,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
@@ -879,50 +922,89 @@
         <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="A8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" ht="180.4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
+    </row>
+    <row r="10" spans="1:10" ht="152.65" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="166.5" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="180.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
